--- a/PS4game.xlsx
+++ b/PS4game.xlsx
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
   <si>
     <t>备选</t>
   </si>
@@ -657,6 +657,9 @@
     <t>模拟经营</t>
   </si>
   <si>
+    <t>concrete geine</t>
+  </si>
+  <si>
     <t>god eater2</t>
   </si>
   <si>
@@ -753,12 +756,18 @@
     <t>旺达与巨像</t>
   </si>
   <si>
+    <t>汐</t>
+  </si>
+  <si>
     <t>逃生2</t>
   </si>
   <si>
     <t>索尼克力量</t>
   </si>
   <si>
+    <t>绝地求生</t>
+  </si>
+  <si>
     <t>模拟人生四</t>
   </si>
   <si>
@@ -775,6 +784,9 @@
   </si>
   <si>
     <t>使命召唤 二战</t>
+  </si>
+  <si>
+    <t>街霸5</t>
   </si>
   <si>
     <t>古墓丽影 崛起</t>
@@ -845,10 +857,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -889,11 +901,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,9 +924,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,28 +1001,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -957,47 +1008,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,187 +1125,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,6 +1385,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1387,17 +1414,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1440,15 +1461,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1457,145 +1469,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1705,12 +1717,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1720,9 +1738,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1730,9 +1745,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
@@ -2089,7 +2101,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2156,7 +2168,7 @@
       <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="41" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2211,7 +2223,7 @@
       <c r="H4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="37" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2287,7 +2299,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="40" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2311,7 +2323,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2332,7 +2344,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="35" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2353,183 +2365,195 @@
         <v>73</v>
       </c>
       <c r="H10" s="14"/>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="2:9">
+    <row r="11" ht="17" customHeight="1" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B11" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="42" t="s">
-        <v>79</v>
+      <c r="I11" s="43" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="2:9">
       <c r="B12" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" s="14"/>
-      <c r="I12" s="43" t="s">
-        <v>84</v>
+      <c r="I12" s="44" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="17" customHeight="1" spans="2:9">
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="2:9">
       <c r="B14" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="44" t="s">
-        <v>94</v>
+      <c r="I14" s="38" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1" spans="2:9">
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1" spans="2:9">
       <c r="B16" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1" spans="2:8">
       <c r="B17" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="2:8">
-      <c r="B18" s="35" t="s">
-        <v>107</v>
+      <c r="B18" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="2:8">
       <c r="B19" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="2:5">
       <c r="B20" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1" spans="2:5">
-      <c r="B21" s="36" t="s">
-        <v>113</v>
+      <c r="B21" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="1" spans="5:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="2:5">
+      <c r="B22" s="38" t="s">
+        <v>118</v>
+      </c>
       <c r="E22" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="1" spans="5:8">
-      <c r="E23" s="37" t="s">
-        <v>115</v>
+      <c r="E23" s="39" t="s">
+        <v>119</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" ht="17" customHeight="1" spans="5:8">
       <c r="E24" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" ht="17" customHeight="1" spans="5:8">
-      <c r="E25" s="38" t="s">
-        <v>117</v>
+      <c r="E25" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2587,27 +2611,27 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="3:3">
@@ -2617,67 +2641,67 @@
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
